--- a/default.xlsx
+++ b/default.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHILRICE\staff-report-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56A915F-2A76-4D15-9DA2-71B1E131EA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5AE76C9-7EBC-49C1-A950-68DF989B09AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{05944475-EFB6-4216-B5E9-8A3CAA3839AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="341">
   <si>
     <t>newid</t>
   </si>
@@ -1660,9 +1660,6 @@
     </r>
   </si>
   <si>
-    <t>Sampling design, size, and procedure identified and computed.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Farm-level household survey in </t>
     </r>
@@ -1710,9 +1707,6 @@
     </r>
   </si>
   <si>
-    <t>Farm-level household survey conducted.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Datasets in </t>
     </r>
@@ -1760,9 +1754,6 @@
     </r>
   </si>
   <si>
-    <t>Datasets edited, verified, and validated.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Data processed and output tables </t>
     </r>
@@ -1787,9 +1778,6 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>Data processed and output tables.</t>
   </si>
   <si>
     <t>GIS file of rice and rice-related data from tabular format (excel, dbf, csv) converted into GIS format;
@@ -2777,9 +2765,6 @@
     </r>
   </si>
   <si>
-    <t>Write up for the national monograph.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Deployment strategies for MR </t>
     </r>
@@ -2809,9 +2794,6 @@
     <t>Continuous improvement of deployment strategies and design.</t>
   </si>
   <si>
-    <t>Processed data and output tables.</t>
-  </si>
-  <si>
     <r>
       <t>Facilitated</t>
     </r>
@@ -2831,6 +2813,21 @@
   </si>
   <si>
     <t>Charging Code</t>
+  </si>
+  <si>
+    <t>Complete, accurate, with proper documentation and approved by end-user</t>
+  </si>
+  <si>
+    <t>Survey returns completed, with proper documentation</t>
+  </si>
+  <si>
+    <t>Complete, accurate, and with proper documentation</t>
+  </si>
+  <si>
+    <t>Output tables are complete, accurate, and approved by project team</t>
+  </si>
+  <si>
+    <t>National monograph finalized, complete and with proper documentation</t>
   </si>
 </sst>
 </file>
@@ -3247,8 +3244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217E0187-139A-442A-8CAA-F11B291D2BEE}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3292,7 +3289,7 @@
         <v>181</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5235,7 +5232,7 @@
         <v>256</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>201</v>
@@ -5264,10 +5261,10 @@
         <v>96</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>201</v>
@@ -5296,10 +5293,10 @@
         <v>97</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>261</v>
+        <v>338</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>201</v>
@@ -5328,10 +5325,10 @@
         <v>98</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>201</v>
@@ -5520,10 +5517,10 @@
         <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>184</v>
@@ -5552,10 +5549,10 @@
         <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>184</v>
@@ -5584,10 +5581,10 @@
         <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>184</v>
@@ -5616,10 +5613,10 @@
         <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>184</v>
@@ -5648,10 +5645,10 @@
         <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>184</v>
@@ -5680,13 +5677,13 @@
         <v>109</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>185</v>
@@ -5712,10 +5709,10 @@
         <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>184</v>
@@ -5744,10 +5741,10 @@
         <v>111</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>184</v>
@@ -5776,10 +5773,10 @@
         <v>112</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>184</v>
@@ -5808,10 +5805,10 @@
         <v>113</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>184</v>
@@ -5840,7 +5837,7 @@
         <v>114</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>224</v>
@@ -5872,7 +5869,7 @@
         <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>200</v>
@@ -5904,7 +5901,7 @@
         <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>200</v>
@@ -5936,10 +5933,10 @@
         <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>210</v>
@@ -5968,7 +5965,7 @@
         <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>209</v>
@@ -6000,10 +5997,10 @@
         <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>210</v>
@@ -6032,10 +6029,10 @@
         <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>184</v>
@@ -6544,10 +6541,10 @@
         <v>121</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>184</v>
@@ -6576,10 +6573,10 @@
         <v>122</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>184</v>
@@ -6608,10 +6605,10 @@
         <v>123</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>201</v>
@@ -6640,10 +6637,10 @@
         <v>124</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>201</v>
@@ -6672,10 +6669,10 @@
         <v>125</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>201</v>
@@ -6704,10 +6701,10 @@
         <v>126</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>184</v>
@@ -6736,10 +6733,10 @@
         <v>127</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>184</v>
@@ -6800,10 +6797,10 @@
         <v>129</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>184</v>
@@ -6832,7 +6829,7 @@
         <v>130</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>198</v>
@@ -6864,7 +6861,7 @@
         <v>131</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>200</v>
@@ -6896,10 +6893,10 @@
         <v>132</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>184</v>
@@ -6928,10 +6925,10 @@
         <v>133</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>184</v>
@@ -6960,7 +6957,7 @@
         <v>134</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>203</v>
@@ -6992,10 +6989,10 @@
         <v>135</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>201</v>
@@ -7027,7 +7024,7 @@
         <v>182</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>184</v>
@@ -7059,7 +7056,7 @@
         <v>182</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>184</v>
@@ -7120,13 +7117,13 @@
         <v>139</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>185</v>
@@ -7152,10 +7149,10 @@
         <v>140</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>210</v>
@@ -7184,10 +7181,10 @@
         <v>141</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>184</v>
@@ -7216,10 +7213,10 @@
         <v>142</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>184</v>
@@ -7248,10 +7245,10 @@
         <v>143</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>184</v>
@@ -7280,10 +7277,10 @@
         <v>144</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>184</v>
@@ -7312,7 +7309,7 @@
         <v>145</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>249</v>
@@ -7344,10 +7341,10 @@
         <v>146</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>184</v>
@@ -7760,7 +7757,7 @@
         <v>158</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>192</v>
@@ -7792,7 +7789,7 @@
         <v>159</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>192</v>
@@ -7984,7 +7981,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>247</v>
@@ -8016,10 +8013,10 @@
         <v>166</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>184</v>
@@ -8048,10 +8045,10 @@
         <v>167</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>184</v>
@@ -8080,10 +8077,10 @@
         <v>168</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>184</v>
@@ -8176,10 +8173,10 @@
         <v>171</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>184</v>
@@ -8208,10 +8205,10 @@
         <v>172</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>184</v>

--- a/default.xlsx
+++ b/default.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHILRICE\staff-report-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5AE76C9-7EBC-49C1-A950-68DF989B09AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8177A89-CDA1-445B-BD3A-5B315947DBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{05944475-EFB6-4216-B5E9-8A3CAA3839AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="343">
   <si>
     <t>newid</t>
   </si>
@@ -2828,6 +2828,12 @@
   </si>
   <si>
     <t>National monograph finalized, complete and with proper documentation</t>
+  </si>
+  <si>
+    <t>4. Lead in one (1) regular ideation session</t>
+  </si>
+  <si>
+    <t>5. Manage consultation requests, consultation schedule, consultant assignments and monitor feedback from clients</t>
   </si>
 </sst>
 </file>
@@ -3242,10 +3248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217E0187-139A-442A-8CAA-F11B291D2BEE}">
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7612,27 +7618,27 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>43</v>
+        <v>341</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>184</v>
@@ -7644,27 +7650,27 @@
         <v>186</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>155</v>
+        <v>342</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>184</v>
@@ -7676,30 +7682,30 @@
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>185</v>
@@ -7708,7 +7714,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7722,13 +7728,13 @@
         <v>20</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>229</v>
+        <v>43</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>184</v>
@@ -7740,7 +7746,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7754,13 +7760,13 @@
         <v>20</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>327</v>
+        <v>225</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>184</v>
@@ -7786,13 +7792,13 @@
         <v>20</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>328</v>
+        <v>156</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>184</v>
@@ -7804,7 +7810,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7812,19 +7818,19 @@
         <v>39</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>195</v>
+        <v>157</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>184</v>
@@ -7836,7 +7842,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7844,19 +7850,19 @@
         <v>39</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>184</v>
@@ -7868,7 +7874,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7876,22 +7882,22 @@
         <v>39</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>199</v>
+        <v>159</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>185</v>
@@ -7900,7 +7906,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7908,22 +7914,22 @@
         <v>39</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>185</v>
@@ -7932,7 +7938,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7940,19 +7946,19 @@
         <v>39</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>184</v>
@@ -7964,7 +7970,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7972,22 +7978,22 @@
         <v>39</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>329</v>
+        <v>199</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>185</v>
@@ -7996,7 +8002,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8007,19 +8013,19 @@
         <v>11</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>330</v>
+        <v>163</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>340</v>
+        <v>203</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>185</v>
@@ -8028,7 +8034,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8039,16 +8045,16 @@
         <v>11</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>331</v>
+        <v>164</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>332</v>
+        <v>205</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>184</v>
@@ -8060,7 +8066,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8071,16 +8077,16 @@
         <v>11</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>184</v>
@@ -8092,7 +8098,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8100,22 +8106,22 @@
         <v>39</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>208</v>
+        <v>330</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>185</v>
@@ -8124,7 +8130,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8132,22 +8138,22 @@
         <v>39</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>211</v>
+        <v>331</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>185</v>
@@ -8164,19 +8170,19 @@
         <v>39</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>184</v>
@@ -8188,7 +8194,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8199,19 +8205,19 @@
         <v>14</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>333</v>
+        <v>169</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>334</v>
+        <v>209</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>185</v>
@@ -8220,7 +8226,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8231,13 +8237,13 @@
         <v>14</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>216</v>
+        <v>170</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>209</v>
@@ -8252,7 +8258,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8263,19 +8269,19 @@
         <v>14</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>217</v>
+        <v>171</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>185</v>
@@ -8284,7 +8290,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8295,19 +8301,19 @@
         <v>14</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F158" s="6" t="s">
-        <v>218</v>
+        <v>172</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>185</v>
@@ -8327,19 +8333,19 @@
         <v>14</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>221</v>
+        <v>173</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>185</v>
@@ -8348,7 +8354,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8362,21 +8368,117 @@
         <v>18</v>
       </c>
       <c r="E160" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J160" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J161" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J162" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F160" s="6" t="s">
+      <c r="F163" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G160" s="3" t="s">
+      <c r="G163" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H160" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J160" t="s">
+      <c r="H163" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J163" t="s">
         <v>186</v>
       </c>
     </row>

--- a/default.xlsx
+++ b/default.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHILRICE\staff-report-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8177A89-CDA1-445B-BD3A-5B315947DBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D4E862-12C2-4711-8245-071759E09D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{05944475-EFB6-4216-B5E9-8A3CAA3839AD}"/>
   </bookViews>
@@ -536,12 +536,6 @@
     <t>12. Lead data analysis of requests classified for rapid-response analytics related to Market and Economics</t>
   </si>
   <si>
-    <t>13. Co-work in the write-up of the MR national monograph</t>
-  </si>
-  <si>
-    <t>14. Co-work in the continuous improvement of deployment strategies and design in all target areas</t>
-  </si>
-  <si>
     <t>15. Assist in the data processing and generation of results</t>
   </si>
   <si>
@@ -2766,35 +2760,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Deployment strategies for MR </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>produced</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Continuous improvement of deployment strategies and design.</t>
-  </si>
-  <si>
-    <r>
       <t>Facilitated</t>
     </r>
     <r>
@@ -2834,6 +2799,18 @@
   </si>
   <si>
     <t>5. Manage consultation requests, consultation schedule, consultant assignments and monitor feedback from clients</t>
+  </si>
+  <si>
+    <t>14. Co-work in the write-up of the MR national monograph</t>
+  </si>
+  <si>
+    <t>13. Lead the monograph writing in two pilot provinces</t>
+  </si>
+  <si>
+    <t>Written reports on two pilot provinces</t>
+  </si>
+  <si>
+    <t>Finlized, complete, accurate with proper documentation</t>
   </si>
 </sst>
 </file>
@@ -3250,8 +3227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217E0187-139A-442A-8CAA-F11B291D2BEE}">
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="C139" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3283,19 +3260,19 @@
         <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3315,19 +3292,19 @@
         <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3347,19 +3324,19 @@
         <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3379,19 +3356,19 @@
         <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3411,19 +3388,19 @@
         <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3443,19 +3420,19 @@
         <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -3475,19 +3452,19 @@
         <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -3507,19 +3484,19 @@
         <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -3539,19 +3516,19 @@
         <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3571,19 +3548,19 @@
         <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -3603,19 +3580,19 @@
         <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3635,19 +3612,19 @@
         <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3667,19 +3644,19 @@
         <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3699,19 +3676,19 @@
         <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -3731,19 +3708,19 @@
         <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3763,19 +3740,19 @@
         <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3795,19 +3772,19 @@
         <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3827,19 +3804,19 @@
         <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3859,19 +3836,19 @@
         <v>60</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3891,19 +3868,19 @@
         <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3923,19 +3900,19 @@
         <v>62</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3955,19 +3932,19 @@
         <v>63</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3987,19 +3964,19 @@
         <v>64</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -4019,19 +3996,19 @@
         <v>65</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -4051,19 +4028,19 @@
         <v>66</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -4083,19 +4060,19 @@
         <v>67</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -4115,19 +4092,19 @@
         <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -4147,19 +4124,19 @@
         <v>69</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -4179,19 +4156,19 @@
         <v>70</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -4211,19 +4188,19 @@
         <v>71</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4243,19 +4220,19 @@
         <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J31" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4275,19 +4252,19 @@
         <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4307,19 +4284,19 @@
         <v>74</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4339,19 +4316,19 @@
         <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="I34" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4371,19 +4348,19 @@
         <v>76</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4403,19 +4380,19 @@
         <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4435,19 +4412,19 @@
         <v>43</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -4467,19 +4444,19 @@
         <v>78</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4499,19 +4476,19 @@
         <v>79</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -4531,19 +4508,19 @@
         <v>80</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -4563,19 +4540,19 @@
         <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -4595,19 +4572,19 @@
         <v>82</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -4627,19 +4604,19 @@
         <v>83</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -4659,19 +4636,19 @@
         <v>84</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -4691,19 +4668,19 @@
         <v>85</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -4723,19 +4700,19 @@
         <v>86</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4755,19 +4732,19 @@
         <v>87</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4787,19 +4764,19 @@
         <v>74</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4819,19 +4796,19 @@
         <v>75</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="I49" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4851,19 +4828,19 @@
         <v>76</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4883,19 +4860,19 @@
         <v>77</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4915,19 +4892,19 @@
         <v>43</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -4947,19 +4924,19 @@
         <v>88</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -4979,19 +4956,19 @@
         <v>89</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J54" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5011,19 +4988,19 @@
         <v>90</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -5043,19 +5020,19 @@
         <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J56" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -5075,19 +5052,19 @@
         <v>48</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -5107,19 +5084,19 @@
         <v>49</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -5139,19 +5116,19 @@
         <v>92</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -5171,19 +5148,19 @@
         <v>93</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J60" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -5203,19 +5180,19 @@
         <v>94</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J61" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5235,19 +5212,19 @@
         <v>95</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5267,19 +5244,19 @@
         <v>96</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5299,19 +5276,19 @@
         <v>97</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J64" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5331,19 +5308,19 @@
         <v>98</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J65" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5363,19 +5340,19 @@
         <v>99</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5395,19 +5372,19 @@
         <v>100</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5427,19 +5404,19 @@
         <v>101</v>
       </c>
       <c r="F68" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="I68" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5459,19 +5436,19 @@
         <v>102</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J69" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -5491,19 +5468,19 @@
         <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J70" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
@@ -5523,19 +5500,19 @@
         <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J71" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -5555,19 +5532,19 @@
         <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
@@ -5587,19 +5564,19 @@
         <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J73" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -5619,19 +5596,19 @@
         <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5651,19 +5628,19 @@
         <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J75" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5683,19 +5660,19 @@
         <v>109</v>
       </c>
       <c r="F76" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="I76" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5715,19 +5692,19 @@
         <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J77" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.3">
@@ -5747,19 +5724,19 @@
         <v>111</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.3">
@@ -5779,19 +5756,19 @@
         <v>112</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -5811,19 +5788,19 @@
         <v>113</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.3">
@@ -5843,19 +5820,19 @@
         <v>114</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -5875,19 +5852,19 @@
         <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -5907,19 +5884,19 @@
         <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J83" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5939,19 +5916,19 @@
         <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -5971,19 +5948,19 @@
         <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6003,19 +5980,19 @@
         <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J86" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6035,19 +6012,19 @@
         <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J87" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6067,19 +6044,19 @@
         <v>63</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J88" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6099,19 +6076,19 @@
         <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -6131,19 +6108,19 @@
         <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -6163,19 +6140,19 @@
         <v>66</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -6195,19 +6172,19 @@
         <v>67</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -6227,19 +6204,19 @@
         <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="I93" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -6259,19 +6236,19 @@
         <v>69</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -6291,19 +6268,19 @@
         <v>70</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -6323,19 +6300,19 @@
         <v>71</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6355,19 +6332,19 @@
         <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6387,19 +6364,19 @@
         <v>73</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J98" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6419,19 +6396,19 @@
         <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J99" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6451,19 +6428,19 @@
         <v>75</v>
       </c>
       <c r="F100" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="I100" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6483,19 +6460,19 @@
         <v>76</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J101" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6515,19 +6492,19 @@
         <v>77</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6547,19 +6524,19 @@
         <v>121</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6579,19 +6556,19 @@
         <v>122</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6611,19 +6588,19 @@
         <v>123</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6643,19 +6620,19 @@
         <v>124</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J106" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6675,19 +6652,19 @@
         <v>125</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J107" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6707,19 +6684,19 @@
         <v>126</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J108" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6739,19 +6716,19 @@
         <v>127</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J109" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -6771,19 +6748,19 @@
         <v>128</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J110" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -6803,19 +6780,19 @@
         <v>129</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J111" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -6835,19 +6812,19 @@
         <v>130</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J112" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -6867,19 +6844,19 @@
         <v>131</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J113" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6899,19 +6876,19 @@
         <v>132</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J114" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6931,19 +6908,19 @@
         <v>133</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J115" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6963,19 +6940,19 @@
         <v>134</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J116" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -6995,19 +6972,19 @@
         <v>135</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J117" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7027,19 +7004,19 @@
         <v>136</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J118" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7059,19 +7036,19 @@
         <v>137</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J119" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7091,19 +7068,19 @@
         <v>138</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J120" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -7123,19 +7100,19 @@
         <v>139</v>
       </c>
       <c r="F121" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H121" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="I121" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J121" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7155,19 +7132,19 @@
         <v>140</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J122" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7187,19 +7164,19 @@
         <v>141</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J123" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7219,19 +7196,19 @@
         <v>142</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J124" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -7251,19 +7228,19 @@
         <v>143</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J125" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7283,19 +7260,19 @@
         <v>144</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J126" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -7315,19 +7292,19 @@
         <v>145</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J127" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -7347,19 +7324,19 @@
         <v>146</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J128" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7379,19 +7356,19 @@
         <v>147</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J129" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7411,19 +7388,19 @@
         <v>148</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J130" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7443,19 +7420,19 @@
         <v>149</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H131" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G131" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="I131" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J131" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7475,19 +7452,19 @@
         <v>150</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J132" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -7507,19 +7484,19 @@
         <v>151</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J133" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7539,19 +7516,19 @@
         <v>152</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J134" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7571,19 +7548,19 @@
         <v>153</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J135" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7603,19 +7580,19 @@
         <v>154</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J136" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -7632,22 +7609,22 @@
         <v>8</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J137" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -7664,22 +7641,22 @@
         <v>9</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J138" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -7699,19 +7676,19 @@
         <v>68</v>
       </c>
       <c r="F139" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H139" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="I139" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J139" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7731,19 +7708,19 @@
         <v>43</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J140" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -7763,19 +7740,19 @@
         <v>155</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J141" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -7795,19 +7772,19 @@
         <v>156</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J142" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -7827,19 +7804,19 @@
         <v>157</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J143" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -7859,19 +7836,19 @@
         <v>158</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J144" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -7891,19 +7868,19 @@
         <v>159</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J145" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -7923,19 +7900,19 @@
         <v>160</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J146" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -7955,19 +7932,19 @@
         <v>161</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J147" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -7987,19 +7964,19 @@
         <v>162</v>
       </c>
       <c r="F148" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="I148" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J148" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -8019,19 +7996,19 @@
         <v>163</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J149" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -8051,19 +8028,19 @@
         <v>164</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J150" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -8083,19 +8060,19 @@
         <v>165</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J151" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8112,22 +8089,22 @@
         <v>41</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>166</v>
+        <v>340</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J152" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8144,22 +8121,22 @@
         <v>41</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>167</v>
+        <v>339</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J153" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8176,22 +8153,22 @@
         <v>30</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J154" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -8208,22 +8185,22 @@
         <v>15</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F155" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G155" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="I155" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J155" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -8240,22 +8217,22 @@
         <v>15</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J156" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -8272,22 +8249,22 @@
         <v>15</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J157" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -8304,22 +8281,22 @@
         <v>16</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J158" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8336,22 +8313,22 @@
         <v>17</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J159" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8368,22 +8345,22 @@
         <v>18</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J160" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8400,22 +8377,22 @@
         <v>18</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F161" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H161" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G161" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="I161" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J161" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8432,22 +8409,22 @@
         <v>18</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J162" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -8464,22 +8441,22 @@
         <v>18</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J163" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/default.xlsx
+++ b/default.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHILRICE\staff-report-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D4E862-12C2-4711-8245-071759E09D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D7A39F-DD85-452D-84FC-B8ACB0E4D5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{05944475-EFB6-4216-B5E9-8A3CAA3839AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="344">
   <si>
     <t>newid</t>
   </si>
@@ -2811,6 +2811,9 @@
   </si>
   <si>
     <t>Finlized, complete, accurate with proper documentation</t>
+  </si>
+  <si>
+    <t>Within the Philippines or International</t>
   </si>
 </sst>
 </file>
@@ -3227,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217E0187-139A-442A-8CAA-F11B291D2BEE}">
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C139" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5963,7 +5966,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5989,7 +5992,7 @@
         <v>208</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>183</v>
+        <v>343</v>
       </c>
       <c r="J86" t="s">
         <v>184</v>

--- a/default.xlsx
+++ b/default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PHILRICE\staff-report-app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nefriend M. Francisco\Documents\Data Analytics Center\annexa_app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D7A39F-DD85-452D-84FC-B8ACB0E4D5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1435E656-0F1A-4A42-9E80-A376B23543C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{05944475-EFB6-4216-B5E9-8A3CAA3839AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05944475-EFB6-4216-B5E9-8A3CAA3839AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="358">
   <si>
     <t>newid</t>
   </si>
@@ -59,9 +48,6 @@
     <t>Advanced Analytics (Ensemble modelling)</t>
   </si>
   <si>
-    <t>MFO 3.  Extension support, educations and traiing services (ESSETS)</t>
-  </si>
-  <si>
     <t>Analytics Sandbox</t>
   </si>
   <si>
@@ -879,21 +865,6 @@
     <t>Fully functional. Maintained and improved as necessary.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">One </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>presentation/demonstrations  of shiny web app/dashboard conducted for intended cleints.</t>
-    </r>
-  </si>
-  <si>
     <t>With proper documentation of presentation, and dashboard accessible through the RiceLytics Executive portal.</t>
   </si>
   <si>
@@ -1094,9 +1065,6 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>With documented proof of attendance, participation or completeion.</t>
   </si>
   <si>
     <t>As per invitation, within January to June 2026</t>
@@ -1535,9 +1503,6 @@
   </si>
   <si>
     <t>Provided data analytics services to 100% of the rapid response analytics requests related to technologies, program interventions, and policies impacting rice productivity</t>
-  </si>
-  <si>
-    <t>With documentation report for each rapid resonse</t>
   </si>
   <si>
     <t>Descriptive summaries, pattern
@@ -1910,9 +1875,6 @@
     </r>
   </si>
   <si>
-    <t>With documentation and interpration of generated model diagnostics and perofrmance metrics</t>
-  </si>
-  <si>
     <r>
       <t>One (1)</t>
     </r>
@@ -2810,10 +2772,79 @@
     <t>Written reports on two pilot provinces</t>
   </si>
   <si>
-    <t>Finlized, complete, accurate with proper documentation</t>
-  </si>
-  <si>
     <t>Within the Philippines or International</t>
+  </si>
+  <si>
+    <t>MFO 3.  Extension support, educations and training services (ESSETS)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">One </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>presentation/demonstrations  of shiny web app/dashboard conducted for intended clients.</t>
+    </r>
+  </si>
+  <si>
+    <t>With documented proof of attendance, participation or completion.</t>
+  </si>
+  <si>
+    <t>With documentation and interpretation of generated model diagnostics and performance metrics</t>
+  </si>
+  <si>
+    <t>Finalized, complete, accurate with proper documentation</t>
+  </si>
+  <si>
+    <t>Data Extraction, Transformation and Cataloging</t>
+  </si>
+  <si>
+    <t>11. Maintain and regularly update the Data Catalog subsystem, ensuring accurate metadata assignment and proper linking of both new and existing datasets.</t>
+  </si>
+  <si>
+    <t>12. Ensure the timeliness and accuracy of existing databases by continuously updating data from various agencies and sources</t>
+  </si>
+  <si>
+    <t>13. Proactively source new and updated rice, climate, soil, and other related datasets to enhance the DAC’s repository.</t>
+  </si>
+  <si>
+    <t>14. Assist in collaborating with other units to monitor data sharing, integration, and updates within the portal.</t>
+  </si>
+  <si>
+    <t>15. Lead in monitoring for data analytics potential and opportunities on news, policies and current affairs relating to rice industry</t>
+  </si>
+  <si>
+    <t>100% of identified and received datasets with proper data uploaded in the data management portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One data inventory up-to-date and accessible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At least (2) new datasets properly cataloged in DAC’s repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At least coordinated with 6 units to actively track and ensure accurate data sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accessible, with proper metadata, and integrated under the unified management portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> With proper documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All throughout the semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> By June 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> within set timeline</t>
   </si>
 </sst>
 </file>
@@ -3228,25 +3259,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217E0187-139A-442A-8CAA-F11B291D2BEE}">
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.21875" customWidth="1"/>
-    <col min="6" max="6" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.33203125" customWidth="1"/>
-    <col min="8" max="8" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3260,25 +3291,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3292,25 +3323,25 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3324,25 +3355,25 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3356,25 +3387,25 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3388,25 +3419,25 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3420,25 +3451,25 @@
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3446,31 +3477,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3478,31 +3509,31 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3510,31 +3541,31 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3542,31 +3573,31 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3574,31 +3605,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3606,31 +3637,31 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3638,31 +3669,31 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3670,31 +3701,31 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3702,31 +3733,31 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3734,31 +3765,31 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3766,31 +3797,31 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3798,31 +3829,31 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3830,31 +3861,31 @@
         <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3862,31 +3893,31 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3894,4572 +3925,4700 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J30" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="H37" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J37" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J39" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J41" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J42" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="H43" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J43" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="H44" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J44" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J45" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J46" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J47" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J48" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J49" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J50" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J51" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="H52" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J52" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J53" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J56" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J57" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="H58" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J58" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="H59" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J60" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J61" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J62" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J63" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J64" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J65" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J66" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J67" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>217</v>
+        <v>340</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J68" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J69" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J70" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J71" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J72" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J73" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J74" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J75" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J76" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J77" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J78" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J79" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J80" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J81" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J82" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J83" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J84" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J85" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J86" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J87" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J88" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J89" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J90" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J91" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="H92" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J92" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H93" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="I93" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J94" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="H95" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J95" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J96" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J97" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>22</v>
+        <v>343</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>73</v>
+        <v>344</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>232</v>
+        <v>349</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>233</v>
+        <v>353</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>182</v>
+        <v>355</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J98" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>18</v>
+        <v>343</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>208</v>
+        <v>355</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J99" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>18</v>
+        <v>343</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>216</v>
+        <v>351</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>217</v>
+        <v>353</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>218</v>
+        <v>356</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J100" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>18</v>
+        <v>343</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>219</v>
+        <v>347</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>220</v>
+        <v>354</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>182</v>
+        <v>357</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J101" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J102" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J103" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>285</v>
+        <v>214</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J104" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J105" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>290</v>
+        <v>102</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J106" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J107" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J108" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J109" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J110" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J111" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>299</v>
+        <v>125</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J112" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J113" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>301</v>
+        <v>127</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>302</v>
+        <v>193</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J114" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>303</v>
+        <v>128</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J115" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J116" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J117" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>180</v>
+        <v>131</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J118" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>180</v>
+        <v>298</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J119" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>230</v>
+        <v>133</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J120" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>309</v>
+        <v>134</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J121" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E122" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>312</v>
+        <v>135</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J122" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>314</v>
+        <v>179</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J123" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>316</v>
+        <v>227</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>317</v>
+        <v>203</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J124" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>318</v>
+        <v>138</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>182</v>
+        <v>306</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J125" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>320</v>
+        <v>139</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J126" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J127" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J128" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>207</v>
+        <v>314</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J129" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>215</v>
+        <v>143</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>207</v>
+        <v>316</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J130" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>216</v>
+        <v>144</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J131" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>219</v>
+        <v>145</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>220</v>
+        <v>319</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J132" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>222</v>
+        <v>146</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J133" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J134" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>188</v>
+        <v>340</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>189</v>
+        <v>149</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J136" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>194</v>
+        <v>150</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J137" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>195</v>
+        <v>151</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J138" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J139" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J140" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>5</v>
+        <v>338</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>155</v>
+        <v>332</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J141" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>5</v>
+        <v>338</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>225</v>
+        <v>333</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J142" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>5</v>
+        <v>338</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J143" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>325</v>
+        <v>179</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J144" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J145" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>193</v>
+        <v>155</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J146" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>195</v>
+        <v>156</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J147" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>197</v>
+        <v>157</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J148" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>200</v>
+        <v>321</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J149" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J150" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>327</v>
+        <v>160</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J151" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>341</v>
+        <v>196</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>342</v>
+        <v>197</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J152" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>328</v>
+        <v>162</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J153" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>257</v>
+        <v>163</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>335</v>
+        <v>201</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J154" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J155" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>209</v>
+        <v>336</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>207</v>
+        <v>342</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J156" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>169</v>
+        <v>334</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J157" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>329</v>
+        <v>165</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>330</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J158" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>214</v>
+        <v>166</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J159" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>215</v>
+        <v>167</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J160" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>216</v>
+        <v>168</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J161" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>219</v>
+        <v>169</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J162" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J163" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J164" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J165" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J166" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J167" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
